--- a/oa_excel/test_ullim.xlsx
+++ b/oa_excel/test_ullim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\oa_excel\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C723FD7-3FDD-4B9A-B083-EA49DBDB4F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9F725A-458A-4986-8FB3-ADEF3B424925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="610" windowWidth="12230" windowHeight="8440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="함께" sheetId="1" r:id="rId1"/>
@@ -347,12 +347,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/oa_excel/test_ullim.xlsx
+++ b/oa_excel/test_ullim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\oa_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AAE6F5-2CE5-44B3-8955-EA8B8209A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33539299-BB2B-4D6B-AB34-E05C025AECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
